--- a/docMineCalc/calcMny.xlsx
+++ b/docMineCalc/calcMny.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office-work\assets\plugins\docMine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office-work\assets\plugins\docMineCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3F0DC0-4604-49DF-91B7-24C09605773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E974176E-6959-4502-930E-3D3A5D12E367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5930816B-0928-4E41-B44F-3CAA6FCEF904}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>RU432671961IN</t>
   </si>
   <si>
     <t>=============================</t>
+  </si>
+  <si>
+    <t>icb</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A602F7C-D162-4B0B-90B0-F5AED92BB7DB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,61 +401,69 @@
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>565000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>93000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>63000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1933000</v>
-      </c>
-      <c r="C12" s="3">
-        <v>45796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1928000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>0</v>
       </c>
     </row>
